--- a/6. Conditonal_Formatting.xlsx
+++ b/6. Conditonal_Formatting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\GitHub_Clone_Repo\Rahul_Repo\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B588A0E-0E64-41E4-A36C-3B504D7374C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9954E309-E754-48A9-8296-CBD6DCBFFFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{37CF7066-C407-4A6A-9873-5840C0489694}"/>
   </bookViews>
@@ -35,12 +35,157 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Vipin</t>
+  </si>
+  <si>
+    <t>Ashu</t>
+  </si>
+  <si>
+    <t>Rishu</t>
+  </si>
+  <si>
+    <t>Rishi</t>
+  </si>
+  <si>
+    <t>Chukki</t>
+  </si>
+  <si>
+    <t>Mikku</t>
+  </si>
+  <si>
+    <t>Shubham</t>
+  </si>
+  <si>
+    <t>Popat</t>
+  </si>
+  <si>
+    <t>Akash</t>
+  </si>
+  <si>
+    <t>Kallu</t>
+  </si>
+  <si>
+    <t>Rinku</t>
+  </si>
+  <si>
+    <t>Chalu</t>
+  </si>
+  <si>
+    <t>Buddhe</t>
+  </si>
+  <si>
+    <t>Rani</t>
+  </si>
+  <si>
+    <t>Anand</t>
+  </si>
+  <si>
+    <t>Anup</t>
+  </si>
+  <si>
+    <t>Ballu</t>
+  </si>
+  <si>
+    <t>Shivam</t>
+  </si>
+  <si>
+    <t>Manoj</t>
+  </si>
+  <si>
+    <t>Current Address</t>
+  </si>
+  <si>
+    <t>Gurugram</t>
+  </si>
+  <si>
+    <t>Chakkarpur</t>
+  </si>
+  <si>
+    <t>Baragaon</t>
+  </si>
+  <si>
+    <t>Baoli-a</t>
+  </si>
+  <si>
+    <t>Shiv@pur</t>
+  </si>
+  <si>
+    <t>Bhar#lai</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Unchahar</t>
+  </si>
+  <si>
+    <t>Thane</t>
+  </si>
+  <si>
+    <t>Nala Sopara</t>
+  </si>
+  <si>
+    <t>Kapaswadi</t>
+  </si>
+  <si>
+    <t>Taktakpur</t>
+  </si>
+  <si>
+    <t>Dharti se upar</t>
+  </si>
+  <si>
+    <t>Tatanagar</t>
+  </si>
+  <si>
+    <t>Jharkhand</t>
+  </si>
+  <si>
+    <t>Tiwaripur</t>
+  </si>
+  <si>
+    <t>Pandeypur</t>
+  </si>
+  <si>
+    <t>Tamil() Nadu</t>
+  </si>
+  <si>
+    <t>America</t>
+  </si>
+  <si>
+    <t>Pun32e</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,16 +208,153 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -153,7 +435,109 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0186180-CEC7-31FD-023E-504610A86253}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7086600" y="409575"/>
+          <a:ext cx="4972050" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1. Location</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> : Home -&gt; Styles -&gt; Conditional Formatting.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>2. Use : To Spot TRENDS &amp; PATTERNS in the data &amp; visually HIGHLIGHT them.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>3. How : Using Bars, Colors and icons.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83ADF2F7-AA47-40E1-92DC-B5330CDA5D8D}" name="Table1" displayName="Table1" ref="A1:D21" totalsRowShown="0" headerRowDxfId="11" dataDxfId="12">
+  <autoFilter ref="A1:D21" xr:uid="{83ADF2F7-AA47-40E1-92DC-B5330CDA5D8D}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{2C0060EE-ACE9-4CE3-8B26-47F30B1A34E6}" name="ID" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{95C0478F-3C67-4834-8FAA-64903162B1B3}" name="Name" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{5D935F81-46DA-4616-AFDE-6614085B47B0}" name="Current Address" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{B73A7660-13C4-4233-AFCF-E13F07E49F6D}" name="Salary" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,15 +857,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD7FC82-C053-492F-AFA6-4E8A115E453D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D2" sqref="D2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+      <formula>$A$1&gt;9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="yesterday">
+      <formula>FLOOR(C1,1)=TODAY()-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{362AEEB6-A20E-4564-84FB-C2BE5EDE5EC8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/6. Conditonal_Formatting.xlsx
+++ b/6. Conditonal_Formatting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\GitHub_Clone_Repo\Rahul_Repo\Me_Mastering_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9954E309-E754-48A9-8296-CBD6DCBFFFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28E2F95-97B3-4764-A488-C3890455071C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{37CF7066-C407-4A6A-9873-5840C0489694}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37CF7066-C407-4A6A-9873-5840C0489694}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -225,97 +225,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -502,7 +412,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> : Home -&gt; Styles -&gt; Conditional Formatting.</a:t>
+            <a:t> : Home -&gt; Styles -&gt; Conditional Formatting..</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -528,13 +438,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83ADF2F7-AA47-40E1-92DC-B5330CDA5D8D}" name="Table1" displayName="Table1" ref="A1:D21" totalsRowShown="0" headerRowDxfId="11" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83ADF2F7-AA47-40E1-92DC-B5330CDA5D8D}" name="Table1" displayName="Table1" ref="A1:D21" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:D21" xr:uid="{83ADF2F7-AA47-40E1-92DC-B5330CDA5D8D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2C0060EE-ACE9-4CE3-8B26-47F30B1A34E6}" name="ID" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{95C0478F-3C67-4834-8FAA-64903162B1B3}" name="Name" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{5D935F81-46DA-4616-AFDE-6614085B47B0}" name="Current Address" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{B73A7660-13C4-4233-AFCF-E13F07E49F6D}" name="Salary" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{2C0060EE-ACE9-4CE3-8B26-47F30B1A34E6}" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{95C0478F-3C67-4834-8FAA-64903162B1B3}" name="Name" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{5D935F81-46DA-4616-AFDE-6614085B47B0}" name="Current Address" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{B73A7660-13C4-4233-AFCF-E13F07E49F6D}" name="Salary" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -860,17 +770,17 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D21"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -884,7 +794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -898,7 +808,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -912,7 +822,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -926,7 +836,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -940,7 +850,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -954,7 +864,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -968,7 +878,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -982,7 +892,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -996,7 +906,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1010,7 +920,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1024,7 +934,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1038,7 +948,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1052,7 +962,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1066,7 +976,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1080,7 +990,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1094,7 +1004,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1108,7 +1018,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1122,7 +1032,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1136,7 +1046,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1150,7 +1060,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1165,14 +1075,14 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
-      <formula>$A$1&gt;9</formula>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="timePeriod" dxfId="1" priority="1" timePeriod="yesterday">
+      <formula>FLOOR(C1,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="yesterday">
-      <formula>FLOOR(C1,1)=TODAY()-1</formula>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
+      <formula>$A$1&gt;9</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>

--- a/6. Conditonal_Formatting.xlsx
+++ b/6. Conditonal_Formatting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28E2F95-97B3-4764-A488-C3890455071C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33283824-8993-4486-ACE3-969C33E43FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37CF7066-C407-4A6A-9873-5840C0489694}"/>
   </bookViews>
@@ -412,7 +412,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> : Home -&gt; Styles -&gt; Conditional Formatting..</a:t>
+            <a:t> : Home -&gt; Styles -&gt; Conditional Formatting.</a:t>
           </a:r>
         </a:p>
         <a:p>

--- a/6. Conditonal_Formatting.xlsx
+++ b/6. Conditonal_Formatting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33283824-8993-4486-ACE3-969C33E43FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DECF61-A9D5-402B-9E78-9948EA6DCDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37CF7066-C407-4A6A-9873-5840C0489694}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Pun32e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
   </si>
 </sst>
 </file>
@@ -767,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD7FC82-C053-492F-AFA6-4E8A115E453D}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,7 +783,7 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,7 +797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -808,7 +811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -822,7 +825,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -836,7 +839,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -850,7 +853,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -864,7 +867,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -878,7 +881,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -892,7 +895,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -906,7 +909,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -920,7 +923,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -934,7 +937,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -948,7 +951,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -962,7 +965,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -976,7 +979,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -990,7 +993,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1002,6 +1005,9 @@
       </c>
       <c r="D16" s="1">
         <v>1500</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">

--- a/6. Conditonal_Formatting.xlsx
+++ b/6. Conditonal_Formatting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DECF61-A9D5-402B-9E78-9948EA6DCDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2C6A29-48A8-43CD-B7B7-D1AE81A1B349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37CF7066-C407-4A6A-9873-5840C0489694}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
   </si>
 </sst>
 </file>
@@ -773,7 +776,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -783,7 +786,7 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -797,7 +800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -811,7 +814,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -825,7 +828,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -839,7 +842,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -853,7 +856,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -867,7 +870,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -881,7 +884,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -895,7 +898,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -909,7 +912,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -923,7 +926,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -937,7 +940,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -951,7 +954,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -965,7 +968,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -979,7 +982,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -993,7 +996,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1006,11 +1009,8 @@
       <c r="D16" s="1">
         <v>1500</v>
       </c>
-      <c r="G16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1023,8 +1023,11 @@
       <c r="D17" s="1">
         <v>1600</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1038,7 +1041,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1051,8 +1054,11 @@
       <c r="D19" s="1">
         <v>1800</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1066,7 +1072,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>

--- a/6. Conditonal_Formatting.xlsx
+++ b/6. Conditonal_Formatting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2C6A29-48A8-43CD-B7B7-D1AE81A1B349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B13680-9796-4105-8549-25C0120AE287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37CF7066-C407-4A6A-9873-5840C0489694}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -168,9 +168,6 @@
   </si>
   <si>
     <t>Pun32e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      </t>
   </si>
   <si>
     <t xml:space="preserve">        </t>
@@ -776,7 +773,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1055,7 +1052,7 @@
         <v>1800</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">

--- a/6. Conditonal_Formatting.xlsx
+++ b/6. Conditonal_Formatting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B13680-9796-4105-8549-25C0120AE287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1891B5-47AB-41ED-8DA2-0BEA65EEED3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37CF7066-C407-4A6A-9873-5840C0489694}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>Success rate</t>
   </si>
 </sst>
 </file>
@@ -228,7 +231,10 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -350,16 +356,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>240030</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -374,8 +380,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7086600" y="409575"/>
-          <a:ext cx="4972050" cy="638175"/>
+          <a:off x="4754880" y="1095375"/>
+          <a:ext cx="4972050" cy="615315"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -441,13 +447,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83ADF2F7-AA47-40E1-92DC-B5330CDA5D8D}" name="Table1" displayName="Table1" ref="A1:D21" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:D21" xr:uid="{83ADF2F7-AA47-40E1-92DC-B5330CDA5D8D}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2C0060EE-ACE9-4CE3-8B26-47F30B1A34E6}" name="ID" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{95C0478F-3C67-4834-8FAA-64903162B1B3}" name="Name" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{5D935F81-46DA-4616-AFDE-6614085B47B0}" name="Current Address" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{B73A7660-13C4-4233-AFCF-E13F07E49F6D}" name="Salary" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83ADF2F7-AA47-40E1-92DC-B5330CDA5D8D}" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:E21" xr:uid="{83ADF2F7-AA47-40E1-92DC-B5330CDA5D8D}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{2C0060EE-ACE9-4CE3-8B26-47F30B1A34E6}" name="ID" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{95C0478F-3C67-4834-8FAA-64903162B1B3}" name="Name" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{5D935F81-46DA-4616-AFDE-6614085B47B0}" name="Current Address" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{B73A7660-13C4-4233-AFCF-E13F07E49F6D}" name="Salary" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{B7A54897-1DF9-4FB0-A4B9-107FBBE9FB5E}" name="Success rate" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -770,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD7FC82-C053-492F-AFA6-4E8A115E453D}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,9 +788,10 @@
     <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -796,8 +804,14 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -810,8 +824,12 @@
       <c r="D2" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="1"/>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -824,8 +842,12 @@
       <c r="D3" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="1"/>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -838,8 +860,12 @@
       <c r="D4" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="1"/>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -852,8 +878,12 @@
       <c r="D5" s="1">
         <v>400</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="1"/>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -866,8 +896,14 @@
       <c r="D6" s="1">
         <v>500</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="1">
+        <v>96</v>
+      </c>
+      <c r="Q6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -880,8 +916,12 @@
       <c r="D7" s="1">
         <v>600</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="1"/>
+      <c r="Q7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -894,8 +934,12 @@
       <c r="D8" s="1">
         <v>700</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="1"/>
+      <c r="Q8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -908,8 +952,14 @@
       <c r="D9" s="1">
         <v>800</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="1">
+        <v>89</v>
+      </c>
+      <c r="Q9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -922,8 +972,12 @@
       <c r="D10" s="1">
         <v>900</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="1"/>
+      <c r="Q10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -936,8 +990,12 @@
       <c r="D11" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="1"/>
+      <c r="Q11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -950,8 +1008,12 @@
       <c r="D12" s="1">
         <v>1100</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="1"/>
+      <c r="Q12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -964,8 +1026,14 @@
       <c r="D13" s="1">
         <v>1200</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" s="1">
+        <v>55</v>
+      </c>
+      <c r="Q13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -978,8 +1046,12 @@
       <c r="D14" s="1">
         <v>1300</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="1"/>
+      <c r="Q14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -992,8 +1064,12 @@
       <c r="D15" s="1">
         <v>1400</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="1"/>
+      <c r="Q15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1006,8 +1082,12 @@
       <c r="D16" s="1">
         <v>1500</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E16" s="1"/>
+      <c r="Q16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1020,11 +1100,15 @@
       <c r="D17" s="1">
         <v>1600</v>
       </c>
+      <c r="E17" s="1"/>
       <c r="G17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="Q17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1037,8 +1121,12 @@
       <c r="D18" s="1">
         <v>1700</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E18" s="1"/>
+      <c r="Q18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1051,11 +1139,17 @@
       <c r="D19" s="1">
         <v>1800</v>
       </c>
+      <c r="E19" s="1">
+        <v>12</v>
+      </c>
       <c r="G19" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="Q19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1068,8 +1162,12 @@
       <c r="D20" s="1">
         <v>1900</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E20" s="1"/>
+      <c r="Q20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1082,18 +1180,438 @@
       <c r="D21" s="1">
         <v>2000</v>
       </c>
+      <c r="E21" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q43">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q44">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q46">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q47">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q51">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q52">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q53">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q54">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q55">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q56">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q57">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q58">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q59">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q60">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q61">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q62">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q63">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q64">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q65">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q66">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q67">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q68">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q69">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q70">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q71">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q72">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q73">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q74">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q75">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q76">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q77">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q78">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q79">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q80">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q81">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q82">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q83">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q84">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q85">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q86">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q87">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q88">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q89">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q90">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q91">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q92">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q93">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q94">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q95">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q96">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q97">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q98">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q99">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q100">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="timePeriod" dxfId="1" priority="1" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="2" priority="2" timePeriod="yesterday">
       <formula>FLOOR(C1,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
       <formula>$A$1&gt;9</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar showValue="0">
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <color theme="6" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A879FD45-B28F-49B4-8F2B-88350F395FB4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{97588EF9-30AE-4C64-A57F-DF004CC7762F}">
+      <formula1>$Q$1:$Q$100</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{362AEEB6-A20E-4564-84FB-C2BE5EDE5EC8}"/>
   </hyperlinks>
@@ -1102,5 +1620,26 @@
   <tableParts count="1">
     <tablePart r:id="rId3"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A879FD45-B28F-49B4-8F2B-88350F395FB4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/6. Conditonal_Formatting.xlsx
+++ b/6. Conditonal_Formatting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1891B5-47AB-41ED-8DA2-0BEA65EEED3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6E85E4-F050-48CF-A1C0-AD4E8FF64351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37CF7066-C407-4A6A-9873-5840C0489694}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>Success rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -233,9 +236,6 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -254,6 +254,9 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -454,7 +457,7 @@
     <tableColumn id="2" xr3:uid="{95C0478F-3C67-4834-8FAA-64903162B1B3}" name="Name" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{5D935F81-46DA-4616-AFDE-6614085B47B0}" name="Current Address" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{B73A7660-13C4-4233-AFCF-E13F07E49F6D}" name="Salary" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{B7A54897-1DF9-4FB0-A4B9-107FBBE9FB5E}" name="Success rate" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{B7A54897-1DF9-4FB0-A4B9-107FBBE9FB5E}" name="Success rate" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -780,7 +783,7 @@
   <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1122,6 +1125,9 @@
         <v>1700</v>
       </c>
       <c r="E18" s="1"/>
+      <c r="I18" t="s">
+        <v>46</v>
+      </c>
       <c r="Q18">
         <v>18</v>
       </c>
@@ -1584,13 +1590,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="timePeriod" dxfId="2" priority="2" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="1" priority="2" timePeriod="yesterday">
       <formula>FLOOR(C1,1)=TODAY()-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
-      <formula>$A$1&gt;9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
@@ -1605,6 +1606,11 @@
           <x14:id>{A879FD45-B28F-49B4-8F2B-88350F395FB4}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
+      <formula>$A$1&gt;9</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/6. Conditonal_Formatting.xlsx
+++ b/6. Conditonal_Formatting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6E85E4-F050-48CF-A1C0-AD4E8FF64351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F221F3C-B112-4A4A-9F55-8C529BDC5B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37CF7066-C407-4A6A-9873-5840C0489694}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         </t>
   </si>
 </sst>
 </file>
@@ -783,7 +786,7 @@
   <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1199,6 +1202,9 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
       <c r="Q23">
         <v>23</v>
       </c>

--- a/6. Conditonal_Formatting.xlsx
+++ b/6. Conditonal_Formatting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F221F3C-B112-4A4A-9F55-8C529BDC5B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085E8F92-08EA-46AD-95BB-AA68753C3A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37CF7066-C407-4A6A-9873-5840C0489694}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -786,7 +786,7 @@
   <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -831,6 +831,9 @@
         <v>100</v>
       </c>
       <c r="E2" s="1"/>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
       <c r="Q2">
         <v>2</v>
       </c>

--- a/6. Conditonal_Formatting.xlsx
+++ b/6. Conditonal_Formatting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085E8F92-08EA-46AD-95BB-AA68753C3A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80458D37-0D66-4C99-853A-DE87572D2559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37CF7066-C407-4A6A-9873-5840C0489694}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t xml:space="preserve">         </t>
+  </si>
+  <si>
+    <t>sssss</t>
   </si>
 </sst>
 </file>
@@ -786,7 +789,7 @@
   <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1056,6 +1059,9 @@
         <v>1300</v>
       </c>
       <c r="E14" s="1"/>
+      <c r="I14" t="s">
+        <v>48</v>
+      </c>
       <c r="Q14">
         <v>14</v>
       </c>

--- a/6. Conditonal_Formatting.xlsx
+++ b/6. Conditonal_Formatting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80458D37-0D66-4C99-853A-DE87572D2559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338EBEFA-5F93-4F3C-8A00-3C260A07F928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37CF7066-C407-4A6A-9873-5840C0489694}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>sssss</t>
+  </si>
+  <si>
+    <t>fffff</t>
   </si>
 </sst>
 </file>
@@ -789,7 +792,7 @@
   <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1061,6 +1064,9 @@
       <c r="E14" s="1"/>
       <c r="I14" t="s">
         <v>48</v>
+      </c>
+      <c r="J14" t="s">
+        <v>49</v>
       </c>
       <c r="Q14">
         <v>14</v>

--- a/6. Conditonal_Formatting.xlsx
+++ b/6. Conditonal_Formatting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338EBEFA-5F93-4F3C-8A00-3C260A07F928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92B1117-DF86-4A17-89B3-048E5D7330A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37CF7066-C407-4A6A-9873-5840C0489694}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>fffff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
   </si>
 </sst>
 </file>
@@ -792,7 +795,7 @@
   <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1086,6 +1089,9 @@
         <v>1400</v>
       </c>
       <c r="E15" s="1"/>
+      <c r="J15" t="s">
+        <v>50</v>
+      </c>
       <c r="Q15">
         <v>15</v>
       </c>

--- a/6. Conditonal_Formatting.xlsx
+++ b/6. Conditonal_Formatting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92B1117-DF86-4A17-89B3-048E5D7330A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94D3A0C-73BA-4EBF-B8E0-D1D3FCE4F92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37CF7066-C407-4A6A-9873-5840C0489694}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
   </si>
 </sst>
 </file>
@@ -795,7 +798,7 @@
   <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1212,6 +1215,9 @@
       </c>
       <c r="E21" s="1">
         <v>10</v>
+      </c>
+      <c r="J21" t="s">
+        <v>51</v>
       </c>
       <c r="Q21">
         <v>21</v>
